--- a/assets/courses/Центр Тестирования и Развития Гуманитарные технологии.xlsx
+++ b/assets/courses/Центр Тестирования и Развития Гуманитарные технологии.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="Курсы" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>Тестирование и консультация</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Профориентация</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -377,8 +383,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,15 +417,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -721,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
@@ -740,13 +753,13 @@
     <col min="1" max="1" width="24.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="177.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="105.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="5" width="105.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1">
+    <row r="1" spans="1:7" ht="36" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -760,13 +773,16 @@
         <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="98">
+    <row r="2" spans="1:7" ht="98">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -779,14 +795,17 @@
       <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="211" customHeight="1">
+    <row r="3" spans="1:7" ht="211" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -799,14 +818,17 @@
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="159" customHeight="1">
+    <row r="4" spans="1:7" ht="159" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -819,14 +841,17 @@
       <c r="D4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
+      <c r="G4" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="140">
+    <row r="5" spans="1:7" ht="140">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -839,14 +864,17 @@
       <c r="D5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="13">
+      <c r="G5" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="138" customHeight="1">
+    <row r="6" spans="1:7" ht="138" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -859,14 +887,17 @@
       <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G6" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="134.25" customHeight="1">
+    <row r="7" spans="1:7" ht="134.25" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -879,39 +910,43 @@
       <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1">
+    <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="36" customHeight="1">
+    <row r="9" spans="1:7" ht="36" customHeight="1">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="36" customHeight="1">
+    <row r="10" spans="1:7" ht="36" customHeight="1">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="36" customHeight="1">
+    <row r="11" spans="1:7" ht="36" customHeight="1">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="36" customHeight="1">
+    <row r="12" spans="1:7" ht="36" customHeight="1">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="36" customHeight="1">
+    <row r="13" spans="1:7" ht="36" customHeight="1">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
